--- a/va_facility_data_2025-02-20/Henry Parham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Henry%20Parham%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Henry Parham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Henry%20Parham%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Satisfaction with Care" sheetId="1" r:id="R11625313a0b54b85ad529b0ec60093b2"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R058336da848c4cfcbd797ad9a890c786"/>
+    <x:sheet name="Satisfaction with Care" sheetId="1" r:id="R9486f00c90cd43fc819a811a0a24355e"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R1acbfd25c0074a869ff475420d7e676a"/>
   </x:sheets>
 </x:workbook>
 </file>
